--- a/mf_revenue_prediction.xlsx
+++ b/mf_revenue_prediction.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Client</t>
+  </si>
+  <si>
+    <t>probability</t>
   </si>
   <si>
     <t>mf_revenue_prediction</t>
@@ -377,138 +380,2133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
-        <v>766</v>
+        <v>1564</v>
       </c>
       <c r="B2">
-        <v>3.286586172949567</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.92</v>
+      </c>
+      <c r="C2">
+        <v>3.036735492343306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
-        <v>1008</v>
+        <v>556</v>
       </c>
       <c r="B3">
-        <v>3.26835245789648</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>0.91</v>
+      </c>
+      <c r="C3">
+        <v>3.053878173691726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
-        <v>1093</v>
+        <v>544</v>
       </c>
       <c r="B4">
-        <v>3.266397185914605</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.91</v>
+      </c>
+      <c r="C4">
+        <v>2.78463382978741</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
-        <v>1007</v>
+        <v>390</v>
       </c>
       <c r="B5">
-        <v>3.113846709731122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>0.9</v>
+      </c>
+      <c r="C5">
+        <v>2.951081511036694</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
-        <v>1440</v>
+        <v>1087</v>
       </c>
       <c r="B6">
-        <v>3.051301154367046</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.9</v>
+      </c>
+      <c r="C6">
+        <v>2.975829316342276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
-        <v>1229</v>
+        <v>187</v>
       </c>
       <c r="B7">
-        <v>3.050666412717226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.89</v>
+      </c>
+      <c r="C7">
+        <v>3.066447159876747</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
-        <v>64</v>
+        <v>1182</v>
       </c>
       <c r="B8">
-        <v>3.046696019157205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.88</v>
+      </c>
+      <c r="C8">
+        <v>3.095036989799996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
-        <v>878</v>
+        <v>1484</v>
       </c>
       <c r="B9">
-        <v>3.045355664018523</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.87</v>
+      </c>
+      <c r="C9">
+        <v>3.047654414761654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
-        <v>1480</v>
+        <v>1149</v>
       </c>
       <c r="B10">
-        <v>3.043509416825029</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.87</v>
+      </c>
+      <c r="C10">
+        <v>3.043595846948561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
-        <v>154</v>
+        <v>416</v>
       </c>
       <c r="B11">
-        <v>3.043337323986364</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.86</v>
+      </c>
+      <c r="C11">
+        <v>3.111931797247416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
-        <v>1435</v>
+        <v>725</v>
       </c>
       <c r="B12">
-        <v>3.040369984955452</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.86</v>
+      </c>
+      <c r="C12">
+        <v>3.047450309987767</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
-        <v>1073</v>
+        <v>499</v>
       </c>
       <c r="B13">
-        <v>2.993176699425759</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.85</v>
+      </c>
+      <c r="C13">
+        <v>3.044910630753732</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
-        <v>1569</v>
+        <v>1337</v>
       </c>
       <c r="B14">
-        <v>2.980432553116095</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.84</v>
+      </c>
+      <c r="C14">
+        <v>3.054668773668004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
-        <v>1226</v>
+        <v>790</v>
       </c>
       <c r="B15">
-        <v>2.798989182889781</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.84</v>
+      </c>
+      <c r="C15">
+        <v>3.053197666515187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
-        <v>389</v>
+        <v>777</v>
       </c>
       <c r="B16">
-        <v>2.579869071950017</v>
+        <v>0.84</v>
+      </c>
+      <c r="C16">
+        <v>3.061261522736822</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>0.84</v>
+      </c>
+      <c r="C17">
+        <v>3.08583290008872</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>557</v>
+      </c>
+      <c r="B18">
+        <v>0.83</v>
+      </c>
+      <c r="C18">
+        <v>3.072336041801333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>1055</v>
+      </c>
+      <c r="B19">
+        <v>0.83</v>
+      </c>
+      <c r="C19">
+        <v>3.142854354021333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>1230</v>
+      </c>
+      <c r="B20">
+        <v>0.83</v>
+      </c>
+      <c r="C20">
+        <v>2.88905014739707</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>1220</v>
+      </c>
+      <c r="B21">
+        <v>0.83</v>
+      </c>
+      <c r="C21">
+        <v>3.15873591051327</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>1212</v>
+      </c>
+      <c r="B22">
+        <v>0.83</v>
+      </c>
+      <c r="C22">
+        <v>3.082904152023873</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>1091</v>
+      </c>
+      <c r="B23">
+        <v>0.83</v>
+      </c>
+      <c r="C23">
+        <v>3.115321098534388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>500</v>
+      </c>
+      <c r="B24">
+        <v>0.82</v>
+      </c>
+      <c r="C24">
+        <v>2.997485287529356</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>1317</v>
+      </c>
+      <c r="B25">
+        <v>0.82</v>
+      </c>
+      <c r="C25">
+        <v>3.047150894189761</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>0.82</v>
+      </c>
+      <c r="C26">
+        <v>3.177270209711531</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>86</v>
+      </c>
+      <c r="B27">
+        <v>0.82</v>
+      </c>
+      <c r="C27">
+        <v>3.154788513984895</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>1277</v>
+      </c>
+      <c r="B28">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C28">
+        <v>3.169508264606378</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>1396</v>
+      </c>
+      <c r="B29">
+        <v>0.8</v>
+      </c>
+      <c r="C29">
+        <v>3.071086104735342</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>75</v>
+      </c>
+      <c r="B30">
+        <v>0.8</v>
+      </c>
+      <c r="C30">
+        <v>3.082867224236856</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>1473</v>
+      </c>
+      <c r="B31">
+        <v>0.8</v>
+      </c>
+      <c r="C31">
+        <v>3.245013663783483</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>182</v>
+      </c>
+      <c r="B32">
+        <v>0.8</v>
+      </c>
+      <c r="C32">
+        <v>3.041404184699861</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>102</v>
+      </c>
+      <c r="B33">
+        <v>0.8</v>
+      </c>
+      <c r="C33">
+        <v>3.086121931646114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>1413</v>
+      </c>
+      <c r="B34">
+        <v>0.8</v>
+      </c>
+      <c r="C34">
+        <v>2.280039886393618</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>1412</v>
+      </c>
+      <c r="B35">
+        <v>0.8</v>
+      </c>
+      <c r="C35">
+        <v>3.059033793596542</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>675</v>
+      </c>
+      <c r="B36">
+        <v>0.8</v>
+      </c>
+      <c r="C36">
+        <v>3.120859461582972</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>1273</v>
+      </c>
+      <c r="B37">
+        <v>0.8</v>
+      </c>
+      <c r="C37">
+        <v>3.04913566423643</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>1282</v>
+      </c>
+      <c r="B38">
+        <v>0.8</v>
+      </c>
+      <c r="C38">
+        <v>3.397662801618909</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>614</v>
+      </c>
+      <c r="B39">
+        <v>0.79</v>
+      </c>
+      <c r="C39">
+        <v>3.354440020769658</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>349</v>
+      </c>
+      <c r="B40">
+        <v>0.79</v>
+      </c>
+      <c r="C40">
+        <v>3.031813634525824</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>1042</v>
+      </c>
+      <c r="B41">
+        <v>0.79</v>
+      </c>
+      <c r="C41">
+        <v>3.242227944100267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>34</v>
+      </c>
+      <c r="B42">
+        <v>0.79</v>
+      </c>
+      <c r="C42">
+        <v>3.405843493285524</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>732</v>
+      </c>
+      <c r="B43">
+        <v>0.78</v>
+      </c>
+      <c r="C43">
+        <v>3.130649990213872</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>615</v>
+      </c>
+      <c r="B44">
+        <v>0.78</v>
+      </c>
+      <c r="C44">
+        <v>3.077549845872149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>527</v>
+      </c>
+      <c r="B45">
+        <v>0.78</v>
+      </c>
+      <c r="C45">
+        <v>3.054405247723488</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>1613</v>
+      </c>
+      <c r="B46">
+        <v>0.78</v>
+      </c>
+      <c r="C46">
+        <v>3.054531812705727</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>747</v>
+      </c>
+      <c r="B47">
+        <v>0.78</v>
+      </c>
+      <c r="C47">
+        <v>3.046100532244912</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>1033</v>
+      </c>
+      <c r="B48">
+        <v>0.78</v>
+      </c>
+      <c r="C48">
+        <v>3.190299493961979</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>294</v>
+      </c>
+      <c r="B49">
+        <v>0.78</v>
+      </c>
+      <c r="C49">
+        <v>3.235901124313445</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>1135</v>
+      </c>
+      <c r="B50">
+        <v>0.78</v>
+      </c>
+      <c r="C50">
+        <v>3.130325634781856</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>148</v>
+      </c>
+      <c r="B51">
+        <v>0.78</v>
+      </c>
+      <c r="C51">
+        <v>3.02354440396066</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>1206</v>
+      </c>
+      <c r="B52">
+        <v>0.78</v>
+      </c>
+      <c r="C52">
+        <v>3.048966003164847</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>1264</v>
+      </c>
+      <c r="B53">
+        <v>0.77</v>
+      </c>
+      <c r="C53">
+        <v>3.212673096998505</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>644</v>
+      </c>
+      <c r="B54">
+        <v>0.77</v>
+      </c>
+      <c r="C54">
+        <v>3.030747631595037</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>1399</v>
+      </c>
+      <c r="B55">
+        <v>0.77</v>
+      </c>
+      <c r="C55">
+        <v>3.065635811497859</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>598</v>
+      </c>
+      <c r="B56">
+        <v>0.77</v>
+      </c>
+      <c r="C56">
+        <v>3.044537350228212</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>1469</v>
+      </c>
+      <c r="B57">
+        <v>0.77</v>
+      </c>
+      <c r="C57">
+        <v>3.184749227936957</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>1496</v>
+      </c>
+      <c r="B58">
+        <v>0.77</v>
+      </c>
+      <c r="C58">
+        <v>3.592315486609291</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>0.77</v>
+      </c>
+      <c r="C59">
+        <v>3.063256676393695</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>287</v>
+      </c>
+      <c r="B60">
+        <v>0.77</v>
+      </c>
+      <c r="C60">
+        <v>3.053501686944007</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>437</v>
+      </c>
+      <c r="B61">
+        <v>0.77</v>
+      </c>
+      <c r="C61">
+        <v>3.053536039413146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>648</v>
+      </c>
+      <c r="B62">
+        <v>0.76</v>
+      </c>
+      <c r="C62">
+        <v>3.087277129546993</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>604</v>
+      </c>
+      <c r="B63">
+        <v>0.76</v>
+      </c>
+      <c r="C63">
+        <v>3.146827879594368</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>1070</v>
+      </c>
+      <c r="B64">
+        <v>0.76</v>
+      </c>
+      <c r="C64">
+        <v>3.049864190219882</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>927</v>
+      </c>
+      <c r="B65">
+        <v>0.76</v>
+      </c>
+      <c r="C65">
+        <v>3.076069259921383</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>448</v>
+      </c>
+      <c r="B66">
+        <v>0.76</v>
+      </c>
+      <c r="C66">
+        <v>2.993609366957064</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>693</v>
+      </c>
+      <c r="B67">
+        <v>0.76</v>
+      </c>
+      <c r="C67">
+        <v>3.081717584016635</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>502</v>
+      </c>
+      <c r="B68">
+        <v>0.76</v>
+      </c>
+      <c r="C68">
+        <v>3.054022832354406</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>547</v>
+      </c>
+      <c r="B69">
+        <v>0.75</v>
+      </c>
+      <c r="C69">
+        <v>2.800651227941248</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>1552</v>
+      </c>
+      <c r="B70">
+        <v>0.75</v>
+      </c>
+      <c r="C70">
+        <v>3.053642716987466</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>130</v>
+      </c>
+      <c r="B71">
+        <v>0.75</v>
+      </c>
+      <c r="C71">
+        <v>3.05276345506475</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>1383</v>
+      </c>
+      <c r="B72">
+        <v>0.75</v>
+      </c>
+      <c r="C72">
+        <v>3.082124301248654</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>1104</v>
+      </c>
+      <c r="B73">
+        <v>0.75</v>
+      </c>
+      <c r="C73">
+        <v>3.105243720774565</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>398</v>
+      </c>
+      <c r="B74">
+        <v>0.75</v>
+      </c>
+      <c r="C74">
+        <v>3.06941032675098</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>872</v>
+      </c>
+      <c r="B75">
+        <v>0.75</v>
+      </c>
+      <c r="C75">
+        <v>3.246159514023419</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>611</v>
+      </c>
+      <c r="B76">
+        <v>0.75</v>
+      </c>
+      <c r="C76">
+        <v>3.096652355898307</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>372</v>
+      </c>
+      <c r="B77">
+        <v>0.74</v>
+      </c>
+      <c r="C77">
+        <v>3.432138698430996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>512</v>
+      </c>
+      <c r="B78">
+        <v>0.74</v>
+      </c>
+      <c r="C78">
+        <v>3.042922215361424</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>1492</v>
+      </c>
+      <c r="B79">
+        <v>0.74</v>
+      </c>
+      <c r="C79">
+        <v>2.866375742746572</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>1329</v>
+      </c>
+      <c r="B80">
+        <v>0.74</v>
+      </c>
+      <c r="C80">
+        <v>4.144450595875407</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>529</v>
+      </c>
+      <c r="B81">
+        <v>0.74</v>
+      </c>
+      <c r="C81">
+        <v>2.929343147711021</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>0.74</v>
+      </c>
+      <c r="C82">
+        <v>3.016559081112881</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>1450</v>
+      </c>
+      <c r="B83">
+        <v>0.74</v>
+      </c>
+      <c r="C83">
+        <v>3.031671293784664</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>1392</v>
+      </c>
+      <c r="B84">
+        <v>0.74</v>
+      </c>
+      <c r="C84">
+        <v>3.069293194540459</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>864</v>
+      </c>
+      <c r="B85">
+        <v>0.73</v>
+      </c>
+      <c r="C85">
+        <v>3.042038886834652</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>69</v>
+      </c>
+      <c r="B86">
+        <v>0.73</v>
+      </c>
+      <c r="C86">
+        <v>3.101015830367321</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>122</v>
+      </c>
+      <c r="B87">
+        <v>0.73</v>
+      </c>
+      <c r="C87">
+        <v>3.056415686888214</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>1052</v>
+      </c>
+      <c r="B88">
+        <v>0.73</v>
+      </c>
+      <c r="C88">
+        <v>3.029968414950169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>339</v>
+      </c>
+      <c r="B89">
+        <v>0.73</v>
+      </c>
+      <c r="C89">
+        <v>3.038149216306221</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>1040</v>
+      </c>
+      <c r="B90">
+        <v>0.73</v>
+      </c>
+      <c r="C90">
+        <v>3.221824451735245</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>1391</v>
+      </c>
+      <c r="B91">
+        <v>0.73</v>
+      </c>
+      <c r="C91">
+        <v>3.065255947015849</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>591</v>
+      </c>
+      <c r="B92">
+        <v>0.73</v>
+      </c>
+      <c r="C92">
+        <v>3.030495420727139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>1571</v>
+      </c>
+      <c r="B93">
+        <v>0.73</v>
+      </c>
+      <c r="C93">
+        <v>3.400247611908505</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>686</v>
+      </c>
+      <c r="B94">
+        <v>0.73</v>
+      </c>
+      <c r="C94">
+        <v>3.047101373586568</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>185</v>
+      </c>
+      <c r="B95">
+        <v>0.73</v>
+      </c>
+      <c r="C95">
+        <v>3.103267596664986</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>222</v>
+      </c>
+      <c r="B96">
+        <v>0.72</v>
+      </c>
+      <c r="C96">
+        <v>3.042849909101843</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>143</v>
+      </c>
+      <c r="B97">
+        <v>0.72</v>
+      </c>
+      <c r="C97">
+        <v>3.665827625329725</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>911</v>
+      </c>
+      <c r="B98">
+        <v>0.72</v>
+      </c>
+      <c r="C98">
+        <v>3.055406643024271</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>129</v>
+      </c>
+      <c r="B99">
+        <v>0.72</v>
+      </c>
+      <c r="C99">
+        <v>3.05335006292721</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>399</v>
+      </c>
+      <c r="B100">
+        <v>0.72</v>
+      </c>
+      <c r="C100">
+        <v>3.033764185640341</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>775</v>
+      </c>
+      <c r="B101">
+        <v>0.72</v>
+      </c>
+      <c r="C101">
+        <v>2.271829605275991</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>1502</v>
+      </c>
+      <c r="B102">
+        <v>0.72</v>
+      </c>
+      <c r="C102">
+        <v>3.051132672593072</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>767</v>
+      </c>
+      <c r="B103">
+        <v>0.72</v>
+      </c>
+      <c r="C103">
+        <v>3.17998735880921</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>1514</v>
+      </c>
+      <c r="B104">
+        <v>0.72</v>
+      </c>
+      <c r="C104">
+        <v>3.038846142918562</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>1537</v>
+      </c>
+      <c r="B105">
+        <v>0.72</v>
+      </c>
+      <c r="C105">
+        <v>3.033469658892262</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>477</v>
+      </c>
+      <c r="B106">
+        <v>0.72</v>
+      </c>
+      <c r="C106">
+        <v>3.204380569369378</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>42</v>
+      </c>
+      <c r="B107">
+        <v>0.72</v>
+      </c>
+      <c r="C107">
+        <v>3.046216000661567</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>700</v>
+      </c>
+      <c r="B108">
+        <v>0.72</v>
+      </c>
+      <c r="C108">
+        <v>3.033480339698117</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>973</v>
+      </c>
+      <c r="B109">
+        <v>0.71</v>
+      </c>
+      <c r="C109">
+        <v>3.045631422429019</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>1059</v>
+      </c>
+      <c r="B110">
+        <v>0.71</v>
+      </c>
+      <c r="C110">
+        <v>3.079640065689141</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>1169</v>
+      </c>
+      <c r="B111">
+        <v>0.71</v>
+      </c>
+      <c r="C111">
+        <v>3.054713132257675</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>209</v>
+      </c>
+      <c r="B112">
+        <v>0.71</v>
+      </c>
+      <c r="C112">
+        <v>3.112720366793466</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>525</v>
+      </c>
+      <c r="B113">
+        <v>0.71</v>
+      </c>
+      <c r="C113">
+        <v>2.831894699015494</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>178</v>
+      </c>
+      <c r="B114">
+        <v>0.71</v>
+      </c>
+      <c r="C114">
+        <v>3.034783644197517</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>673</v>
+      </c>
+      <c r="B115">
+        <v>0.71</v>
+      </c>
+      <c r="C115">
+        <v>3.234185283434178</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>880</v>
+      </c>
+      <c r="B116">
+        <v>0.71</v>
+      </c>
+      <c r="C116">
+        <v>3.030191243738416</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>831</v>
+      </c>
+      <c r="B117">
+        <v>0.71</v>
+      </c>
+      <c r="C117">
+        <v>3.056639085118697</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>632</v>
+      </c>
+      <c r="B118">
+        <v>0.71</v>
+      </c>
+      <c r="C118">
+        <v>3.083991585157349</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>445</v>
+      </c>
+      <c r="B119">
+        <v>0.71</v>
+      </c>
+      <c r="C119">
+        <v>3.029514190977986</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>1585</v>
+      </c>
+      <c r="B120">
+        <v>0.71</v>
+      </c>
+      <c r="C120">
+        <v>3.039522278740677</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>1302</v>
+      </c>
+      <c r="B121">
+        <v>0.7</v>
+      </c>
+      <c r="C121">
+        <v>3.065826765577543</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>950</v>
+      </c>
+      <c r="B122">
+        <v>0.7</v>
+      </c>
+      <c r="C122">
+        <v>3.033209351989572</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>1353</v>
+      </c>
+      <c r="B123">
+        <v>0.7</v>
+      </c>
+      <c r="C123">
+        <v>3.046022079142461</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>907</v>
+      </c>
+      <c r="B124">
+        <v>0.7</v>
+      </c>
+      <c r="C124">
+        <v>3.039544828690619</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>608</v>
+      </c>
+      <c r="B125">
+        <v>0.7</v>
+      </c>
+      <c r="C125">
+        <v>3.104221503570166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>792</v>
+      </c>
+      <c r="B126">
+        <v>0.7</v>
+      </c>
+      <c r="C126">
+        <v>3.041667414133129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>1143</v>
+      </c>
+      <c r="B127">
+        <v>0.7</v>
+      </c>
+      <c r="C127">
+        <v>3.090722465227667</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>167</v>
+      </c>
+      <c r="B128">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C128">
+        <v>3.06870894259784</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>1442</v>
+      </c>
+      <c r="B129">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C129">
+        <v>3.042051470666119</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>1158</v>
+      </c>
+      <c r="B130">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C130">
+        <v>3.190149925013626</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>1536</v>
+      </c>
+      <c r="B131">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C131">
+        <v>3.063710297091775</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>292</v>
+      </c>
+      <c r="B132">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C132">
+        <v>3.082144616940313</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>639</v>
+      </c>
+      <c r="B133">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C133">
+        <v>3.044725934483445</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>757</v>
+      </c>
+      <c r="B134">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C134">
+        <v>3.056330606115643</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>944</v>
+      </c>
+      <c r="B135">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C135">
+        <v>3.036804183006097</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>1018</v>
+      </c>
+      <c r="B136">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C136">
+        <v>3.064892941133937</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>993</v>
+      </c>
+      <c r="B137">
+        <v>0.68</v>
+      </c>
+      <c r="C137">
+        <v>3.173099880969318</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>1232</v>
+      </c>
+      <c r="B138">
+        <v>0.68</v>
+      </c>
+      <c r="C138">
+        <v>3.047655207765631</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>1315</v>
+      </c>
+      <c r="B139">
+        <v>0.68</v>
+      </c>
+      <c r="C139">
+        <v>3.093779513485724</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>278</v>
+      </c>
+      <c r="B140">
+        <v>0.68</v>
+      </c>
+      <c r="C140">
+        <v>3.035822808377282</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>1292</v>
+      </c>
+      <c r="B141">
+        <v>0.68</v>
+      </c>
+      <c r="C141">
+        <v>3.040516232520557</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>875</v>
+      </c>
+      <c r="B142">
+        <v>0.68</v>
+      </c>
+      <c r="C142">
+        <v>3.034166023652356</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>1408</v>
+      </c>
+      <c r="B143">
+        <v>0.68</v>
+      </c>
+      <c r="C143">
+        <v>3.56881728409645</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>507</v>
+      </c>
+      <c r="B144">
+        <v>0.68</v>
+      </c>
+      <c r="C144">
+        <v>3.12970431436738</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>1111</v>
+      </c>
+      <c r="B145">
+        <v>0.68</v>
+      </c>
+      <c r="C145">
+        <v>3.200879911464253</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>131</v>
+      </c>
+      <c r="B146">
+        <v>0.67</v>
+      </c>
+      <c r="C146">
+        <v>3.038433471841989</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>1338</v>
+      </c>
+      <c r="B147">
+        <v>0.67</v>
+      </c>
+      <c r="C147">
+        <v>3.030897671422342</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>903</v>
+      </c>
+      <c r="B148">
+        <v>0.67</v>
+      </c>
+      <c r="C148">
+        <v>3.037793618857497</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>1432</v>
+      </c>
+      <c r="B149">
+        <v>0.67</v>
+      </c>
+      <c r="C149">
+        <v>3.039570894346376</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>890</v>
+      </c>
+      <c r="B150">
+        <v>0.67</v>
+      </c>
+      <c r="C150">
+        <v>3.248994701753943</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>1258</v>
+      </c>
+      <c r="B151">
+        <v>0.67</v>
+      </c>
+      <c r="C151">
+        <v>3.046738764784963</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>494</v>
+      </c>
+      <c r="B152">
+        <v>0.67</v>
+      </c>
+      <c r="C152">
+        <v>3.061392906647213</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>1085</v>
+      </c>
+      <c r="B153">
+        <v>0.67</v>
+      </c>
+      <c r="C153">
+        <v>3.082537130017751</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>1166</v>
+      </c>
+      <c r="B154">
+        <v>0.67</v>
+      </c>
+      <c r="C154">
+        <v>3.063489536297326</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>1029</v>
+      </c>
+      <c r="B155">
+        <v>0.67</v>
+      </c>
+      <c r="C155">
+        <v>3.036418525007257</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>718</v>
+      </c>
+      <c r="B156">
+        <v>0.66</v>
+      </c>
+      <c r="C156">
+        <v>3.044255958319186</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>915</v>
+      </c>
+      <c r="B157">
+        <v>0.66</v>
+      </c>
+      <c r="C157">
+        <v>2.800144086396407</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>171</v>
+      </c>
+      <c r="B158">
+        <v>0.66</v>
+      </c>
+      <c r="C158">
+        <v>3.084116146299315</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>836</v>
+      </c>
+      <c r="B159">
+        <v>0.65</v>
+      </c>
+      <c r="C159">
+        <v>3.038343022792631</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>905</v>
+      </c>
+      <c r="B160">
+        <v>0.65</v>
+      </c>
+      <c r="C160">
+        <v>3.092501013078465</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>323</v>
+      </c>
+      <c r="B161">
+        <v>0.65</v>
+      </c>
+      <c r="C161">
+        <v>3.077426329283381</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>127</v>
+      </c>
+      <c r="B162">
+        <v>0.65</v>
+      </c>
+      <c r="C162">
+        <v>3.059003921809526</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>510</v>
+      </c>
+      <c r="B163">
+        <v>0.65</v>
+      </c>
+      <c r="C163">
+        <v>3.131818438251116</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>643</v>
+      </c>
+      <c r="B164">
+        <v>0.65</v>
+      </c>
+      <c r="C164">
+        <v>4.290136422221211</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>935</v>
+      </c>
+      <c r="B165">
+        <v>0.65</v>
+      </c>
+      <c r="C165">
+        <v>3.064592769258368</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>1247</v>
+      </c>
+      <c r="B166">
+        <v>0.65</v>
+      </c>
+      <c r="C166">
+        <v>3.045329316954959</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>1275</v>
+      </c>
+      <c r="B167">
+        <v>0.64</v>
+      </c>
+      <c r="C167">
+        <v>3.029866353360102</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>1470</v>
+      </c>
+      <c r="B168">
+        <v>0.64</v>
+      </c>
+      <c r="C168">
+        <v>3.106785664784657</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>955</v>
+      </c>
+      <c r="B169">
+        <v>0.64</v>
+      </c>
+      <c r="C169">
+        <v>3.065469299695067</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>1411</v>
+      </c>
+      <c r="B170">
+        <v>0.64</v>
+      </c>
+      <c r="C170">
+        <v>2.841384939186658</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>1415</v>
+      </c>
+      <c r="B171">
+        <v>0.64</v>
+      </c>
+      <c r="C171">
+        <v>3.270212500711036</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>801</v>
+      </c>
+      <c r="B172">
+        <v>0.64</v>
+      </c>
+      <c r="C172">
+        <v>3.029621695686536</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>901</v>
+      </c>
+      <c r="B173">
+        <v>0.64</v>
+      </c>
+      <c r="C173">
+        <v>3.064002661450556</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>735</v>
+      </c>
+      <c r="B174">
+        <v>0.64</v>
+      </c>
+      <c r="C174">
+        <v>3.034806383968363</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>43</v>
+      </c>
+      <c r="B175">
+        <v>0.63</v>
+      </c>
+      <c r="C175">
+        <v>3.461274550292378</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>683</v>
+      </c>
+      <c r="B176">
+        <v>0.63</v>
+      </c>
+      <c r="C176">
+        <v>3.054533765085932</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>310</v>
+      </c>
+      <c r="B177">
+        <v>0.63</v>
+      </c>
+      <c r="C177">
+        <v>3.031859321029816</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>883</v>
+      </c>
+      <c r="B178">
+        <v>0.63</v>
+      </c>
+      <c r="C178">
+        <v>3.035676454462731</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>578</v>
+      </c>
+      <c r="B179">
+        <v>0.63</v>
+      </c>
+      <c r="C179">
+        <v>3.097260022435838</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>939</v>
+      </c>
+      <c r="B180">
+        <v>0.63</v>
+      </c>
+      <c r="C180">
+        <v>3.053511598584257</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <v>1549</v>
+      </c>
+      <c r="B181">
+        <v>0.62</v>
+      </c>
+      <c r="C181">
+        <v>2.236344352791845</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>1011</v>
+      </c>
+      <c r="B182">
+        <v>0.62</v>
+      </c>
+      <c r="C182">
+        <v>3.036673955337216</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>244</v>
+      </c>
+      <c r="B183">
+        <v>0.62</v>
+      </c>
+      <c r="C183">
+        <v>3.033547111238788</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>1056</v>
+      </c>
+      <c r="B184">
+        <v>0.62</v>
+      </c>
+      <c r="C184">
+        <v>3.032167743361035</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <v>1500</v>
+      </c>
+      <c r="B185">
+        <v>0.61</v>
+      </c>
+      <c r="C185">
+        <v>3.030326510958569</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>1175</v>
+      </c>
+      <c r="B186">
+        <v>0.61</v>
+      </c>
+      <c r="C186">
+        <v>3.434661644431381</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>533</v>
+      </c>
+      <c r="B187">
+        <v>0.61</v>
+      </c>
+      <c r="C187">
+        <v>3.030027016087497</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>1400</v>
+      </c>
+      <c r="B188">
+        <v>0.6</v>
+      </c>
+      <c r="C188">
+        <v>3.032239999075425</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <v>203</v>
+      </c>
+      <c r="B189">
+        <v>0.6</v>
+      </c>
+      <c r="C189">
+        <v>3.034711791277628</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190">
+        <v>770</v>
+      </c>
+      <c r="B190">
+        <v>0.57</v>
+      </c>
+      <c r="C190">
+        <v>3.034687414932258</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191">
+        <v>977</v>
+      </c>
+      <c r="B191">
+        <v>0.57</v>
+      </c>
+      <c r="C191">
+        <v>3.057276678075628</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192">
+        <v>132</v>
+      </c>
+      <c r="B192">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C192">
+        <v>3.052959723619297</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <v>952</v>
+      </c>
+      <c r="B193">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C193">
+        <v>3.033437320707544</v>
       </c>
     </row>
   </sheetData>
